--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:11_{FCF1FFFF-EE3D-47BC-A845-5A644E5C0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F25E622-D424-4998-B8EE-49109B6C2B0A}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:11_{FCF1FFFF-EE3D-47BC-A845-5A644E5C0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA01994-17CE-4BFC-A066-588055495C51}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15870" yWindow="-6015" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -317,19 +317,22 @@
   <si>
     <t>Projeto Final da disciplina IA368DD_2023S1:   Deep Learning Aplicado a Sistemas de Buscas</t>
   </si>
+  <si>
+    <t>Carga dos dados do sistema Juris (incluindo indexações)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="ddd\,\ dd/mm/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -1106,10 +1109,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyFill="0">
@@ -1119,9 +1122,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1280,37 +1283,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="41" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="41" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,10 +1353,10 @@
     <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1366,7 +1369,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyFill="1">
@@ -1381,7 +1384,7 @@
     <xf numFmtId="0" fontId="6" fillId="43" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="43" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="6" fillId="43" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
@@ -1396,10 +1399,10 @@
     <xf numFmtId="9" fontId="3" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,10 +1414,10 @@
     <xf numFmtId="9" fontId="3" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
@@ -1427,35 +1430,35 @@
     <xf numFmtId="9" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="17" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="17" xfId="10" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Ênfase1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1839,10 +1842,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2109,27 +2108,27 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD3" sqref="BD3"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="31" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="51" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
+    <col min="9" max="51" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2142,7 +2141,7 @@
       <c r="F1" s="20"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="32"/>
       <c r="B2" s="92" t="s">
         <v>76</v>
@@ -2153,99 +2152,99 @@
       <c r="F2" s="20"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="98" t="s">
         <v>74</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="BD3" s="106"/>
-    </row>
-    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD3" s="100"/>
+    </row>
+    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="106">
         <v>45064</v>
       </c>
-      <c r="F4" s="103"/>
-    </row>
-    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="106"/>
+    </row>
+    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5"/>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="99" t="s">
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="99" t="s">
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="99" t="s">
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="101"/>
-      <c r="AK5" s="99" t="s">
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="100"/>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="101"/>
-      <c r="AR5" s="99" t="s">
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="AS5" s="100"/>
-      <c r="AT5" s="100"/>
-      <c r="AU5" s="100"/>
-      <c r="AV5" s="100"/>
-      <c r="AW5" s="100"/>
-      <c r="AX5" s="101"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="104"/>
       <c r="AY5" s="54"/>
     </row>
-    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>q</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
@@ -2678,7 +2677,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
     </row>
-    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +2690,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="str">
-        <f t="shared" ref="H9:H38" si="4">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
+        <f t="shared" ref="H9:H39" si="4">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
         <v/>
       </c>
       <c r="I9" s="57"/>
@@ -2738,7 +2737,7 @@
       <c r="AX9" s="18"/>
       <c r="AY9" s="57"/>
     </row>
-    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +2806,7 @@
       <c r="AX10" s="18"/>
       <c r="AY10" s="57"/>
     </row>
-    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
@@ -2875,7 +2874,7 @@
       <c r="AX11" s="18"/>
       <c r="AY11" s="57"/>
     </row>
-    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31"/>
       <c r="B12" s="40" t="s">
         <v>37</v>
@@ -2940,9 +2939,9 @@
       <c r="AW12" s="18"/>
       <c r="AX12" s="18"/>
       <c r="AY12" s="57"/>
-      <c r="BD12" s="105"/>
-    </row>
-    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BD12" s="99"/>
+    </row>
+    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31"/>
       <c r="B13" s="40" t="s">
         <v>38</v>
@@ -3008,7 +3007,7 @@
       <c r="AX13" s="18"/>
       <c r="AY13" s="57"/>
     </row>
-    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
@@ -3068,12 +3067,12 @@
       <c r="AX14" s="18"/>
       <c r="AY14" s="57"/>
     </row>
-    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>39</v>
@@ -3136,7 +3135,7 @@
       <c r="AX15" s="18"/>
       <c r="AY15" s="57"/>
     </row>
-    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
@@ -3147,18 +3146,18 @@
         <v>39</v>
       </c>
       <c r="D16" s="17">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="75">
-        <v>45073</v>
+        <v>45078</v>
       </c>
       <c r="F16" s="75">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -3204,27 +3203,29 @@
       <c r="AX16" s="18"/>
       <c r="AY16" s="57"/>
     </row>
-    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="B17" s="74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="17">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="75">
-        <v>45071</v>
+        <v>45082</v>
       </c>
       <c r="F17" s="75">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -3238,8 +3239,8 @@
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
@@ -3270,29 +3271,27 @@
       <c r="AX17" s="18"/>
       <c r="AY17" s="57"/>
     </row>
-    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>73</v>
+    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="31"/>
+      <c r="B18" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D18" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="75">
-        <v>45079</v>
+        <v>45073</v>
       </c>
       <c r="F18" s="75">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -3306,8 +3305,8 @@
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
@@ -3338,10 +3337,12 @@
       <c r="AX18" s="18"/>
       <c r="AY18" s="57"/>
     </row>
-    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="B19" s="76" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>49</v>
@@ -3350,15 +3351,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="75">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="F19" s="75">
-        <v>45083</v>
+        <v>45086</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -3376,7 +3377,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
-      <c r="Y19" s="19"/>
+      <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
@@ -3404,21 +3405,27 @@
       <c r="AX19" s="18"/>
       <c r="AY19" s="57"/>
     </row>
-    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="31"/>
+      <c r="B20" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="75">
+        <v>45084</v>
+      </c>
+      <c r="F20" s="75">
+        <v>45086</v>
+      </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="10" t="str">
+      <c r="H20" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -3436,7 +3443,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
+      <c r="Y20" s="19"/>
       <c r="Z20" s="18"/>
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
@@ -3464,27 +3471,21 @@
       <c r="AX20" s="18"/>
       <c r="AY20" s="57"/>
     </row>
-    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="50">
-        <v>45078</v>
-      </c>
-      <c r="F21" s="50">
-        <v>45091</v>
-      </c>
+    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="10">
+      <c r="H21" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v/>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -3530,27 +3531,27 @@
       <c r="AX21" s="18"/>
       <c r="AY21" s="57"/>
     </row>
-    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31"/>
       <c r="B22" s="41" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="50">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="F22" s="50">
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -3596,27 +3597,27 @@
       <c r="AX22" s="18"/>
       <c r="AY22" s="57"/>
     </row>
-    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31"/>
       <c r="B23" s="41" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D23" s="16">
         <v>0</v>
       </c>
       <c r="E23" s="50">
+        <v>45082</v>
+      </c>
+      <c r="F23" s="50">
         <v>45085</v>
-      </c>
-      <c r="F23" s="50">
-        <v>45089</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -3662,13 +3663,13 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="57"/>
     </row>
-    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="31"/>
       <c r="B24" s="41" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D24" s="16">
         <v>0</v>
@@ -3677,12 +3678,12 @@
         <v>45085</v>
       </c>
       <c r="F24" s="50">
-        <v>45095</v>
+        <v>45089</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -3728,21 +3729,27 @@
       <c r="AX24" s="18"/>
       <c r="AY24" s="57"/>
     </row>
-    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="91"/>
+    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="31"/>
+      <c r="B25" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <v>45085</v>
+      </c>
+      <c r="F25" s="50">
+        <v>45095</v>
+      </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="10" t="str">
+      <c r="H25" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -3788,27 +3795,21 @@
       <c r="AX25" s="18"/>
       <c r="AY25" s="57"/>
     </row>
-    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="78">
-        <v>0</v>
-      </c>
-      <c r="E26" s="80">
-        <v>45081</v>
-      </c>
-      <c r="F26" s="80">
-        <v>45082</v>
-      </c>
+    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10">
+      <c r="H26" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -3854,10 +3855,10 @@
       <c r="AX26" s="18"/>
       <c r="AY26" s="57"/>
     </row>
-    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="79" t="s">
-        <v>64</v>
+    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="32"/>
+      <c r="B27" s="81" t="s">
+        <v>63</v>
       </c>
       <c r="C27" s="77" t="s">
         <v>49</v>
@@ -3869,12 +3870,12 @@
         <v>45081</v>
       </c>
       <c r="F27" s="80">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -3904,7 +3905,7 @@
       <c r="AH27" s="18"/>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
+      <c r="AK27" s="57"/>
       <c r="AL27" s="18"/>
       <c r="AM27" s="18"/>
       <c r="AN27" s="18"/>
@@ -3920,27 +3921,27 @@
       <c r="AX27" s="18"/>
       <c r="AY27" s="57"/>
     </row>
-    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="81" t="s">
-        <v>65</v>
+    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="31"/>
+      <c r="B28" s="79" t="s">
+        <v>64</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D28" s="78">
         <v>0</v>
       </c>
       <c r="E28" s="80">
+        <v>45081</v>
+      </c>
+      <c r="F28" s="80">
         <v>45084</v>
-      </c>
-      <c r="F28" s="80">
-        <v>45098</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -3970,7 +3971,7 @@
       <c r="AH28" s="18"/>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="18"/>
-      <c r="AK28" s="57"/>
+      <c r="AK28" s="18"/>
       <c r="AL28" s="18"/>
       <c r="AM28" s="18"/>
       <c r="AN28" s="18"/>
@@ -3986,19 +3987,19 @@
       <c r="AX28" s="18"/>
       <c r="AY28" s="57"/>
     </row>
-    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="79" t="s">
-        <v>40</v>
+    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="32"/>
+      <c r="B29" s="81" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D29" s="78">
         <v>0</v>
       </c>
       <c r="E29" s="80">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="F29" s="80">
         <v>45098</v>
@@ -4006,7 +4007,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -4020,8 +4021,8 @@
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
@@ -4052,21 +4053,27 @@
       <c r="AX29" s="18"/>
       <c r="AY29" s="57"/>
     </row>
-    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="31"/>
+      <c r="B30" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="78">
+        <v>0</v>
+      </c>
+      <c r="E30" s="80">
+        <v>45089</v>
+      </c>
+      <c r="F30" s="80">
+        <v>45098</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
+        <f t="shared" si="4"/>
         <v>10</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4080,8 +4087,8 @@
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
@@ -4112,27 +4119,21 @@
       <c r="AX30" s="18"/>
       <c r="AY30" s="57"/>
     </row>
-    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="75">
-        <v>45091</v>
-      </c>
-      <c r="F31" s="75">
-        <v>45092</v>
-      </c>
+    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="10">
+      <c r="H31" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -4178,10 +4179,10 @@
       <c r="AX31" s="18"/>
       <c r="AY31" s="57"/>
     </row>
-    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="76" t="s">
-        <v>64</v>
+    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="32"/>
+      <c r="B32" s="74" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>49</v>
@@ -4193,12 +4194,12 @@
         <v>45091</v>
       </c>
       <c r="F32" s="75">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -4228,7 +4229,7 @@
       <c r="AH32" s="18"/>
       <c r="AI32" s="18"/>
       <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
+      <c r="AK32" s="57"/>
       <c r="AL32" s="18"/>
       <c r="AM32" s="18"/>
       <c r="AN32" s="18"/>
@@ -4244,13 +4245,13 @@
       <c r="AX32" s="18"/>
       <c r="AY32" s="57"/>
     </row>
-    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="31"/>
       <c r="B33" s="76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D33" s="17">
         <v>0</v>
@@ -4259,12 +4260,12 @@
         <v>45091</v>
       </c>
       <c r="F33" s="75">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -4310,21 +4311,27 @@
       <c r="AX33" s="18"/>
       <c r="AY33" s="57"/>
     </row>
-    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
+    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="31"/>
+      <c r="B34" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" s="75">
+        <v>45091</v>
+      </c>
+      <c r="F34" s="75">
+        <v>45098</v>
+      </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="10" t="str">
+      <c r="H34" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -4354,7 +4361,7 @@
       <c r="AH34" s="18"/>
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
-      <c r="AK34" s="57"/>
+      <c r="AK34" s="18"/>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18"/>
       <c r="AN34" s="18"/>
@@ -4370,27 +4377,21 @@
       <c r="AX34" s="18"/>
       <c r="AY34" s="57"/>
     </row>
-    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="50">
-        <v>45093</v>
-      </c>
-      <c r="F35" s="50">
-        <v>45105</v>
-      </c>
+    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10">
+      <c r="H35" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -4420,14 +4421,14 @@
       <c r="AH35" s="18"/>
       <c r="AI35" s="18"/>
       <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
+      <c r="AK35" s="57"/>
       <c r="AL35" s="18"/>
       <c r="AM35" s="18"/>
       <c r="AN35" s="18"/>
       <c r="AO35" s="18"/>
       <c r="AP35" s="18"/>
       <c r="AQ35" s="18"/>
-      <c r="AR35" s="18"/>
+      <c r="AR35" s="57"/>
       <c r="AS35" s="18"/>
       <c r="AT35" s="18"/>
       <c r="AU35" s="18"/>
@@ -4436,76 +4437,76 @@
       <c r="AX35" s="18"/>
       <c r="AY35" s="57"/>
     </row>
-    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="31"/>
-      <c r="B36" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="94" t="s">
+      <c r="B36" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="16">
         <v>0</v>
       </c>
-      <c r="E36" s="96">
-        <v>45101</v>
-      </c>
-      <c r="F36" s="96">
+      <c r="E36" s="50">
+        <v>45093</v>
+      </c>
+      <c r="F36" s="50">
         <v>45105</v>
       </c>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="60"/>
-      <c r="AP36" s="60"/>
-      <c r="AQ36" s="60"/>
-      <c r="AR36" s="60"/>
-      <c r="AS36" s="60"/>
-      <c r="AT36" s="60"/>
-      <c r="AU36" s="60"/>
-      <c r="AV36" s="60"/>
-      <c r="AW36" s="60"/>
-      <c r="AX36" s="60"/>
-      <c r="AY36" s="61"/>
-    </row>
-    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="18"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="57"/>
+    </row>
+    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="31"/>
       <c r="B37" s="93" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C37" s="94" t="s">
         <v>39</v>
@@ -4514,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="96">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="F37" s="96">
         <v>45105</v>
@@ -4522,7 +4523,7 @@
       <c r="G37" s="59"/>
       <c r="H37" s="59">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I37" s="60"/>
       <c r="J37" s="60"/>
@@ -4568,34 +4569,100 @@
       <c r="AX37" s="60"/>
       <c r="AY37" s="61"/>
     </row>
-    <row r="38" spans="1:51" s="65" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="95">
+        <v>0</v>
+      </c>
+      <c r="E38" s="96">
+        <v>45081</v>
+      </c>
+      <c r="F38" s="96">
+        <v>45105</v>
+      </c>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="60"/>
+      <c r="AI38" s="60"/>
+      <c r="AJ38" s="60"/>
+      <c r="AK38" s="60"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="60"/>
+      <c r="AN38" s="60"/>
+      <c r="AO38" s="60"/>
+      <c r="AP38" s="60"/>
+      <c r="AQ38" s="60"/>
+      <c r="AR38" s="60"/>
+      <c r="AS38" s="60"/>
+      <c r="AT38" s="60"/>
+      <c r="AU38" s="60"/>
+      <c r="AV38" s="60"/>
+      <c r="AW38" s="60"/>
+      <c r="AX38" s="60"/>
+      <c r="AY38" s="61"/>
+    </row>
+    <row r="39" spans="1:51" s="65" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B39" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64" t="str">
+      <c r="C39" s="68"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="E39" s="72"/>
-      <c r="G39" s="73"/>
-    </row>
-    <row r="40" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="8"/>
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="9"/>
+    <row r="40" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="62"/>
+      <c r="E40" s="72"/>
+      <c r="G40" s="73"/>
+    </row>
+    <row r="41" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="8"/>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4610,7 +4677,7 @@
     <mergeCell ref="AD5:AJ5"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D38">
+  <conditionalFormatting sqref="D8:D39">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4624,12 +4691,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:AX38">
+  <conditionalFormatting sqref="I6:AX39">
     <cfRule type="expression" dxfId="6" priority="34">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:AX38">
+  <conditionalFormatting sqref="I8:AX39">
     <cfRule type="expression" dxfId="5" priority="28">
       <formula>AND(Início_da_tarefa&lt;=I$6,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=I$6)</formula>
     </cfRule>
@@ -4637,12 +4704,12 @@
       <formula>AND(Término_da_tarefa&gt;=I$6,Início_da_tarefa&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY6 AY8:AY38">
+  <conditionalFormatting sqref="AY6 AY8:AY39">
     <cfRule type="expression" dxfId="3" priority="36">
       <formula>AND(TODAY()&gt;=AY$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY8:AY38">
+  <conditionalFormatting sqref="AY8:AY39">
     <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND(Início_da_tarefa&lt;=AY$6,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=AY$6)</formula>
     </cfRule>
@@ -4681,7 +4748,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D38</xm:sqref>
+          <xm:sqref>D8:D39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4695,86 +4762,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.42578125" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="94.453125" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="21" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="21" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="21" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="21" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="21" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="21" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>34</v>
       </c>
@@ -4793,6 +4860,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5080,15 +5156,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5110,6 +5177,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5126,14 +5201,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:11_{FCF1FFFF-EE3D-47BC-A845-5A644E5C0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA01994-17CE-4BFC-A066-588055495C51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28352FD6-AAC1-4C6C-8A60-864140466A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15870" yWindow="-6015" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -291,12 +291,6 @@
     <t>Explorar dados de log da busca</t>
   </si>
   <si>
-    <t>Construção do Dataset de Indexação (Index-VCE-Juris-TCU)</t>
-  </si>
-  <si>
-    <t>Construção do Dataset de Avaliação de Busca (Search-Juris-TCU)</t>
-  </si>
-  <si>
     <t>Construção do pipeline de indexação</t>
   </si>
   <si>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>Carga dos dados do sistema Juris (incluindo indexações)</t>
+  </si>
+  <si>
+    <t>Construção do Dataset de Indexação (Juris-TCU-Index)</t>
+  </si>
+  <si>
+    <t>Construção do Dataset de Avaliação de Busca (Juris-TCU)</t>
   </si>
 </sst>
 </file>
@@ -2111,29 +2111,29 @@
   <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="31" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="51" width="2.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" hidden="1" customWidth="1"/>
+    <col min="9" max="51" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="92"/>
       <c r="D1" s="1"/>
@@ -2141,10 +2141,10 @@
       <c r="F1" s="20"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32"/>
       <c r="B2" s="92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="1"/>
@@ -2152,7 +2152,7 @@
       <c r="F2" s="20"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -2160,14 +2160,14 @@
         <v>51</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BD3" s="100"/>
     </row>
-    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="F4" s="106"/>
     </row>
-    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="AX5" s="104"/>
       <c r="AY5" s="54"/>
     </row>
-    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>q</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
     </row>
-    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="AX9" s="18"/>
       <c r="AY9" s="57"/>
     </row>
-    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="AX10" s="18"/>
       <c r="AY10" s="57"/>
     </row>
-    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="AX11" s="18"/>
       <c r="AY11" s="57"/>
     </row>
-    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="40" t="s">
         <v>37</v>
@@ -2941,7 +2941,7 @@
       <c r="AY12" s="57"/>
       <c r="BD12" s="99"/>
     </row>
-    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
       <c r="B13" s="40" t="s">
         <v>38</v>
@@ -3007,12 +3007,12 @@
       <c r="AX13" s="18"/>
       <c r="AY13" s="57"/>
     </row>
-    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C14" s="83"/>
       <c r="D14" s="84"/>
@@ -3067,18 +3067,18 @@
       <c r="AX14" s="18"/>
       <c r="AY14" s="57"/>
     </row>
-    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E15" s="75">
         <v>45073</v>
@@ -3135,7 +3135,7 @@
       <c r="AX15" s="18"/>
       <c r="AY15" s="57"/>
     </row>
-    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="75">
         <v>45078</v>
@@ -3203,7 +3203,7 @@
       <c r="AX16" s="18"/>
       <c r="AY16" s="57"/>
     </row>
-    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>55</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="17">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="75">
         <v>45082</v>
@@ -3271,7 +3271,7 @@
       <c r="AX17" s="18"/>
       <c r="AY17" s="57"/>
     </row>
-    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="74" t="s">
         <v>59</v>
@@ -3280,18 +3280,18 @@
         <v>39</v>
       </c>
       <c r="D18" s="17">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="E18" s="75">
         <v>45073</v>
       </c>
       <c r="F18" s="75">
-        <v>45084</v>
+        <v>45090</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -3337,29 +3337,29 @@
       <c r="AX18" s="18"/>
       <c r="AY18" s="57"/>
     </row>
-    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="17">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E19" s="75">
         <v>45084</v>
       </c>
       <c r="F19" s="75">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -3405,7 +3405,7 @@
       <c r="AX19" s="18"/>
       <c r="AY19" s="57"/>
     </row>
-    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
       <c r="B20" s="76" t="s">
         <v>58</v>
@@ -3414,7 +3414,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="75">
         <v>45084</v>
@@ -3471,12 +3471,12 @@
       <c r="AX20" s="18"/>
       <c r="AY20" s="57"/>
     </row>
-    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="15"/>
@@ -3531,7 +3531,7 @@
       <c r="AX21" s="18"/>
       <c r="AY21" s="57"/>
     </row>
-    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="41" t="s">
         <v>68</v>
@@ -3540,7 +3540,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="16">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E22" s="50">
         <v>45078</v>
@@ -3597,7 +3597,7 @@
       <c r="AX22" s="18"/>
       <c r="AY22" s="57"/>
     </row>
-    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
       <c r="B23" s="41" t="s">
         <v>41</v>
@@ -3606,18 +3606,18 @@
         <v>50</v>
       </c>
       <c r="D23" s="16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="50">
         <v>45082</v>
       </c>
       <c r="F23" s="50">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -3663,7 +3663,7 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="57"/>
     </row>
-    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
       <c r="B24" s="41" t="s">
         <v>61</v>
@@ -3675,15 +3675,15 @@
         <v>0</v>
       </c>
       <c r="E24" s="50">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="F24" s="50">
-        <v>45089</v>
+        <v>45094</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -3729,7 +3729,7 @@
       <c r="AX24" s="18"/>
       <c r="AY24" s="57"/>
     </row>
-    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="41" t="s">
         <v>52</v>
@@ -3741,15 +3741,15 @@
         <v>0</v>
       </c>
       <c r="E25" s="50">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="F25" s="50">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -3795,12 +3795,12 @@
       <c r="AX25" s="18"/>
       <c r="AY25" s="57"/>
     </row>
-    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="88"/>
       <c r="D26" s="89"/>
@@ -3855,7 +3855,7 @@
       <c r="AX26" s="18"/>
       <c r="AY26" s="57"/>
     </row>
-    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="81" t="s">
         <v>63</v>
@@ -3864,18 +3864,18 @@
         <v>49</v>
       </c>
       <c r="D27" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="80">
         <v>45081</v>
       </c>
       <c r="F27" s="80">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -3921,7 +3921,7 @@
       <c r="AX27" s="18"/>
       <c r="AY27" s="57"/>
     </row>
-    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="79" t="s">
         <v>64</v>
@@ -3930,18 +3930,18 @@
         <v>49</v>
       </c>
       <c r="D28" s="78">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E28" s="80">
         <v>45081</v>
       </c>
       <c r="F28" s="80">
-        <v>45084</v>
+        <v>45089</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -3971,7 +3971,7 @@
       <c r="AH28" s="18"/>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
+      <c r="AK28" s="57"/>
       <c r="AL28" s="18"/>
       <c r="AM28" s="18"/>
       <c r="AN28" s="18"/>
@@ -3987,7 +3987,7 @@
       <c r="AX28" s="18"/>
       <c r="AY28" s="57"/>
     </row>
-    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
       <c r="B29" s="81" t="s">
         <v>65</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="80">
-        <v>45084</v>
+        <v>45089</v>
       </c>
       <c r="F29" s="80">
         <v>45098</v>
@@ -4007,7 +4007,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -4053,7 +4053,7 @@
       <c r="AX29" s="18"/>
       <c r="AY29" s="57"/>
     </row>
-    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="79" t="s">
         <v>40</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="80">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="F30" s="80">
         <v>45098</v>
@@ -4073,7 +4073,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4119,7 +4119,7 @@
       <c r="AX30" s="18"/>
       <c r="AY30" s="57"/>
     </row>
-    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>10</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="AX31" s="18"/>
       <c r="AY31" s="57"/>
     </row>
-    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="32"/>
       <c r="B32" s="74" t="s">
         <v>63</v>
@@ -4191,15 +4191,15 @@
         <v>0</v>
       </c>
       <c r="E32" s="75">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="F32" s="75">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -4245,7 +4245,7 @@
       <c r="AX32" s="18"/>
       <c r="AY32" s="57"/>
     </row>
-    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="76" t="s">
         <v>64</v>
@@ -4257,15 +4257,15 @@
         <v>0</v>
       </c>
       <c r="E33" s="75">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="F33" s="75">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -4295,7 +4295,7 @@
       <c r="AH33" s="18"/>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
+      <c r="AK33" s="57"/>
       <c r="AL33" s="18"/>
       <c r="AM33" s="18"/>
       <c r="AN33" s="18"/>
@@ -4311,7 +4311,7 @@
       <c r="AX33" s="18"/>
       <c r="AY33" s="57"/>
     </row>
-    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="76" t="s">
         <v>66</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="75">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="F34" s="75">
         <v>45098</v>
@@ -4331,7 +4331,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -4361,7 +4361,7 @@
       <c r="AH34" s="18"/>
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
+      <c r="AK34" s="57"/>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18"/>
       <c r="AN34" s="18"/>
@@ -4377,7 +4377,7 @@
       <c r="AX34" s="18"/>
       <c r="AY34" s="57"/>
     </row>
-    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>11</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="AX35" s="18"/>
       <c r="AY35" s="57"/>
     </row>
-    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="41" t="s">
         <v>42</v>
@@ -4487,7 +4487,7 @@
       <c r="AH36" s="18"/>
       <c r="AI36" s="18"/>
       <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
+      <c r="AK36" s="57"/>
       <c r="AL36" s="18"/>
       <c r="AM36" s="18"/>
       <c r="AN36" s="18"/>
@@ -4503,7 +4503,7 @@
       <c r="AX36" s="18"/>
       <c r="AY36" s="57"/>
     </row>
-    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="93" t="s">
         <v>67</v>
@@ -4553,7 +4553,7 @@
       <c r="AH37" s="60"/>
       <c r="AI37" s="60"/>
       <c r="AJ37" s="60"/>
-      <c r="AK37" s="60"/>
+      <c r="AK37" s="57"/>
       <c r="AL37" s="60"/>
       <c r="AM37" s="60"/>
       <c r="AN37" s="60"/>
@@ -4569,10 +4569,10 @@
       <c r="AX37" s="60"/>
       <c r="AY37" s="61"/>
     </row>
-    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31"/>
       <c r="B38" s="93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="94" t="s">
         <v>39</v>
@@ -4635,7 +4635,7 @@
       <c r="AX38" s="60"/>
       <c r="AY38" s="61"/>
     </row>
-    <row r="39" spans="1:51" s="65" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" s="65" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="66" t="s">
         <v>12</v>
       </c>
@@ -4652,16 +4652,16 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62"/>
       <c r="E40" s="72"/>
       <c r="G40" s="73"/>
     </row>
-    <row r="41" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
       <c r="F41" s="33"/>
     </row>
-    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
     </row>
   </sheetData>
@@ -4762,31 +4762,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.453125" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="94.44140625" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
@@ -4796,42 +4796,42 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="21" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="21" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="21" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="21" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="21" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="21" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
@@ -4860,12 +4860,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5157,29 +5168,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5206,20 +5217,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28352FD6-AAC1-4C6C-8A60-864140466A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABD703A-325C-4DD8-BE23-21C338AB550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2111,8 +2111,8 @@
   <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI32" sqref="AI32"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3280,7 +3280,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E18" s="75">
         <v>45073</v>
@@ -3348,7 +3348,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E19" s="75">
         <v>45084</v>
@@ -3540,7 +3540,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="50">
         <v>45078</v>
@@ -3606,18 +3606,18 @@
         <v>50</v>
       </c>
       <c r="D23" s="16">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E23" s="50">
         <v>45082</v>
       </c>
       <c r="F23" s="50">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="50">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="F24" s="50">
         <v>45094</v>
@@ -3683,7 +3683,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="50">
-        <v>45089</v>
+        <v>45093</v>
       </c>
       <c r="F25" s="50">
         <v>45098</v>
@@ -3749,7 +3749,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -3930,7 +3930,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="80">
         <v>45081</v>
@@ -3996,7 +3996,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="78">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E29" s="80">
         <v>45089</v>
@@ -4062,7 +4062,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="78">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E30" s="80">
         <v>45091</v>
@@ -4560,7 +4560,7 @@
       <c r="AO37" s="60"/>
       <c r="AP37" s="60"/>
       <c r="AQ37" s="60"/>
-      <c r="AR37" s="60"/>
+      <c r="AR37" s="57"/>
       <c r="AS37" s="60"/>
       <c r="AT37" s="60"/>
       <c r="AU37" s="60"/>
@@ -4578,7 +4578,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="95">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E38" s="96">
         <v>45081</v>
@@ -4880,6 +4880,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5167,15 +5176,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -5196,6 +5196,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5214,12 +5222,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABD703A-325C-4DD8-BE23-21C338AB550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FF740-6684-49A3-871A-0848BCE5E433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2112,7 +2112,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3606,7 +3606,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="16">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E23" s="50">
         <v>45082</v>
@@ -4062,10 +4062,10 @@
         <v>49</v>
       </c>
       <c r="D30" s="78">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E30" s="80">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="F30" s="80">
         <v>45098</v>
@@ -4073,7 +4073,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4323,15 +4323,15 @@
         <v>0</v>
       </c>
       <c r="E34" s="75">
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F34" s="75">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -4728,7 +4728,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5179,18 +5179,18 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FF740-6684-49A3-871A-0848BCE5E433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BA698B-CB5A-4B7D-9DB8-3B31316A9368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>Realizar experimentos: indexador como pipeline de busca</t>
   </si>
   <si>
-    <t>Realizar experimentos: indexador como ranker</t>
-  </si>
-  <si>
     <t>Preparar apresentação final</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>Construção do Dataset de Avaliação de Busca (Juris-TCU)</t>
+  </si>
+  <si>
+    <t>Realizar experimentos: indexador como expansor/ranker</t>
   </si>
 </sst>
 </file>
@@ -326,13 +326,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="d"/>
-    <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="169" formatCode="d"/>
+    <numFmt numFmtId="170" formatCode="ddd\,\ dd/mm/yyyy"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -1109,10 +1109,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyFill="0">
@@ -1122,9 +1122,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1283,37 +1283,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="41" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="41" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,10 +1353,10 @@
     <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1369,7 +1369,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyFill="1">
@@ -1384,7 +1384,7 @@
     <xf numFmtId="0" fontId="6" fillId="43" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="43" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="6" fillId="43" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
@@ -1399,10 +1399,10 @@
     <xf numFmtId="9" fontId="3" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,10 +1414,10 @@
     <xf numFmtId="9" fontId="3" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
@@ -1430,7 +1430,7 @@
     <xf numFmtId="9" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="17" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="17" xfId="10" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -1444,19 +1444,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,29 +2111,29 @@
   <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" hidden="1" customWidth="1"/>
-    <col min="9" max="51" width="2.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="51" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="92"/>
       <c r="D1" s="1"/>
@@ -2141,10 +2141,10 @@
       <c r="F1" s="20"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="32"/>
       <c r="B2" s="92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="1"/>
@@ -2152,7 +2152,7 @@
       <c r="F2" s="20"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -2160,14 +2160,14 @@
         <v>51</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BD3" s="100"/>
     </row>
-    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="F4" s="106"/>
     </row>
-    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="AX5" s="104"/>
       <c r="AY5" s="54"/>
     </row>
-    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>q</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
     </row>
-    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="AX9" s="18"/>
       <c r="AY9" s="57"/>
     </row>
-    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="AX10" s="18"/>
       <c r="AY10" s="57"/>
     </row>
-    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="AX11" s="18"/>
       <c r="AY11" s="57"/>
     </row>
-    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="40" t="s">
         <v>37</v>
@@ -2941,7 +2941,7 @@
       <c r="AY12" s="57"/>
       <c r="BD12" s="99"/>
     </row>
-    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="40" t="s">
         <v>38</v>
@@ -3007,12 +3007,12 @@
       <c r="AX13" s="18"/>
       <c r="AY13" s="57"/>
     </row>
-    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="83"/>
       <c r="D14" s="84"/>
@@ -3067,12 +3067,12 @@
       <c r="AX14" s="18"/>
       <c r="AY14" s="57"/>
     </row>
-    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>39</v>
@@ -3135,7 +3135,7 @@
       <c r="AX15" s="18"/>
       <c r="AY15" s="57"/>
     </row>
-    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="AX16" s="18"/>
       <c r="AY16" s="57"/>
     </row>
-    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>55</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="AX17" s="18"/>
       <c r="AY17" s="57"/>
     </row>
-    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="74" t="s">
         <v>59</v>
@@ -3337,12 +3337,12 @@
       <c r="AX18" s="18"/>
       <c r="AY18" s="57"/>
     </row>
-    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>49</v>
@@ -3405,7 +3405,7 @@
       <c r="AX19" s="18"/>
       <c r="AY19" s="57"/>
     </row>
-    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="76" t="s">
         <v>58</v>
@@ -3471,12 +3471,12 @@
       <c r="AX20" s="18"/>
       <c r="AY20" s="57"/>
     </row>
-    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="15"/>
@@ -3531,10 +3531,10 @@
       <c r="AX21" s="18"/>
       <c r="AY21" s="57"/>
     </row>
-    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>50</v>
@@ -3597,7 +3597,7 @@
       <c r="AX22" s="18"/>
       <c r="AY22" s="57"/>
     </row>
-    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="41" t="s">
         <v>41</v>
@@ -3663,7 +3663,7 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="57"/>
     </row>
-    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="41" t="s">
         <v>61</v>
@@ -3729,7 +3729,7 @@
       <c r="AX24" s="18"/>
       <c r="AY24" s="57"/>
     </row>
-    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="41" t="s">
         <v>52</v>
@@ -3795,12 +3795,12 @@
       <c r="AX25" s="18"/>
       <c r="AY25" s="57"/>
     </row>
-    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="88"/>
       <c r="D26" s="89"/>
@@ -3855,7 +3855,7 @@
       <c r="AX26" s="18"/>
       <c r="AY26" s="57"/>
     </row>
-    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="81" t="s">
         <v>63</v>
@@ -3921,7 +3921,7 @@
       <c r="AX27" s="18"/>
       <c r="AY27" s="57"/>
     </row>
-    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="79" t="s">
         <v>64</v>
@@ -3987,7 +3987,7 @@
       <c r="AX28" s="18"/>
       <c r="AY28" s="57"/>
     </row>
-    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="81" t="s">
         <v>65</v>
@@ -4053,7 +4053,7 @@
       <c r="AX29" s="18"/>
       <c r="AY29" s="57"/>
     </row>
-    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="79" t="s">
         <v>40</v>
@@ -4119,7 +4119,7 @@
       <c r="AX30" s="18"/>
       <c r="AY30" s="57"/>
     </row>
-    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>10</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="AX31" s="18"/>
       <c r="AY31" s="57"/>
     </row>
-    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="74" t="s">
         <v>63</v>
@@ -4245,7 +4245,7 @@
       <c r="AX32" s="18"/>
       <c r="AY32" s="57"/>
     </row>
-    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="B33" s="76" t="s">
         <v>64</v>
@@ -4311,10 +4311,10 @@
       <c r="AX33" s="18"/>
       <c r="AY33" s="57"/>
     </row>
-    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31"/>
       <c r="B34" s="76" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>39</v>
@@ -4377,7 +4377,7 @@
       <c r="AX34" s="18"/>
       <c r="AY34" s="57"/>
     </row>
-    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>11</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="AX35" s="18"/>
       <c r="AY35" s="57"/>
     </row>
-    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31"/>
       <c r="B36" s="41" t="s">
         <v>42</v>
@@ -4503,10 +4503,10 @@
       <c r="AX36" s="18"/>
       <c r="AY36" s="57"/>
     </row>
-    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="B37" s="93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="94" t="s">
         <v>39</v>
@@ -4569,10 +4569,10 @@
       <c r="AX37" s="60"/>
       <c r="AY37" s="61"/>
     </row>
-    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="94" t="s">
         <v>39</v>
@@ -4635,7 +4635,7 @@
       <c r="AX38" s="60"/>
       <c r="AY38" s="61"/>
     </row>
-    <row r="39" spans="1:51" s="65" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" s="65" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66" t="s">
         <v>12</v>
       </c>
@@ -4652,16 +4652,16 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="E40" s="72"/>
       <c r="G40" s="73"/>
     </row>
-    <row r="41" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
       <c r="F41" s="33"/>
     </row>
-    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
     </row>
   </sheetData>
@@ -4762,86 +4762,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94.44140625" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="94.42578125" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="21" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="21" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="21" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="21" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="21" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="21" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>34</v>
       </c>
@@ -4860,35 +4860,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5176,34 +5147,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5222,4 +5195,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BA698B-CB5A-4B7D-9DB8-3B31316A9368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B2F0E3-8739-4959-971E-4704F1C6C855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15870" yWindow="-6015" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -318,7 +318,10 @@
     <t>Construção do Dataset de Avaliação de Busca (Juris-TCU)</t>
   </si>
   <si>
-    <t>Realizar experimentos: indexador como expansor/ranker</t>
+    <t>(ou: experimentar LLM como estágio 3 dos pipes)</t>
+  </si>
+  <si>
+    <t>Experimentar: indexadores como expansão (cadastro)</t>
   </si>
 </sst>
 </file>
@@ -326,13 +329,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="ddd\,\ dd/mm/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -1109,10 +1112,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyFill="0">
@@ -1122,9 +1125,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1283,37 +1286,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="41" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="41" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,10 +1356,10 @@
     <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1369,7 +1372,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyFill="1">
@@ -1384,7 +1387,7 @@
     <xf numFmtId="0" fontId="6" fillId="43" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="43" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="6" fillId="43" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
@@ -1399,10 +1402,10 @@
     <xf numFmtId="9" fontId="3" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,10 +1417,10 @@
     <xf numFmtId="9" fontId="3" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
@@ -1430,7 +1433,7 @@
     <xf numFmtId="9" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="17" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="17" xfId="10" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -1444,19 +1447,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2108,27 +2111,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD42"/>
+  <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AP1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="31" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="51" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" hidden="1" customWidth="1"/>
+    <col min="9" max="42" width="2.54296875" hidden="1" customWidth="1"/>
+    <col min="43" max="51" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +2145,7 @@
       <c r="F1" s="20"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="32"/>
       <c r="B2" s="92" t="s">
         <v>73</v>
@@ -2152,7 +2156,7 @@
       <c r="F2" s="20"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -2167,7 +2171,7 @@
       </c>
       <c r="BD3" s="100"/>
     </row>
-    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -2181,7 +2185,7 @@
       </c>
       <c r="F4" s="106"/>
     </row>
-    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
@@ -2244,7 +2248,7 @@
       <c r="AX5" s="104"/>
       <c r="AY5" s="54"/>
     </row>
-    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2431,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>q</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2681,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
     </row>
-    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2694,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="str">
-        <f t="shared" ref="H9:H39" si="4">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
+        <f t="shared" ref="H9:H40" si="4">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
         <v/>
       </c>
       <c r="I9" s="57"/>
@@ -2737,7 +2741,7 @@
       <c r="AX9" s="18"/>
       <c r="AY9" s="57"/>
     </row>
-    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
@@ -2806,7 +2810,7 @@
       <c r="AX10" s="18"/>
       <c r="AY10" s="57"/>
     </row>
-    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
@@ -2874,7 +2878,7 @@
       <c r="AX11" s="18"/>
       <c r="AY11" s="57"/>
     </row>
-    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31"/>
       <c r="B12" s="40" t="s">
         <v>37</v>
@@ -2941,7 +2945,7 @@
       <c r="AY12" s="57"/>
       <c r="BD12" s="99"/>
     </row>
-    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31"/>
       <c r="B13" s="40" t="s">
         <v>38</v>
@@ -2950,7 +2954,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E13" s="47">
         <v>45071</v>
@@ -3007,7 +3011,7 @@
       <c r="AX13" s="18"/>
       <c r="AY13" s="57"/>
     </row>
-    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
@@ -3067,7 +3071,7 @@
       <c r="AX14" s="18"/>
       <c r="AY14" s="57"/>
     </row>
-    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="32" t="s">
         <v>55</v>
       </c>
@@ -3135,7 +3139,7 @@
       <c r="AX15" s="18"/>
       <c r="AY15" s="57"/>
     </row>
-    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +3207,7 @@
       <c r="AX16" s="18"/>
       <c r="AY16" s="57"/>
     </row>
-    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="32" t="s">
         <v>55</v>
       </c>
@@ -3271,7 +3275,7 @@
       <c r="AX17" s="18"/>
       <c r="AY17" s="57"/>
     </row>
-    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31"/>
       <c r="B18" s="74" t="s">
         <v>59</v>
@@ -3337,7 +3341,7 @@
       <c r="AX18" s="18"/>
       <c r="AY18" s="57"/>
     </row>
-    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="32" t="s">
         <v>55</v>
       </c>
@@ -3405,7 +3409,7 @@
       <c r="AX19" s="18"/>
       <c r="AY19" s="57"/>
     </row>
-    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="31"/>
       <c r="B20" s="76" t="s">
         <v>58</v>
@@ -3471,7 +3475,7 @@
       <c r="AX20" s="18"/>
       <c r="AY20" s="57"/>
     </row>
-    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="32" t="s">
         <v>55</v>
       </c>
@@ -3531,7 +3535,7 @@
       <c r="AX21" s="18"/>
       <c r="AY21" s="57"/>
     </row>
-    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31"/>
       <c r="B22" s="41" t="s">
         <v>67</v>
@@ -3597,7 +3601,7 @@
       <c r="AX22" s="18"/>
       <c r="AY22" s="57"/>
     </row>
-    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31"/>
       <c r="B23" s="41" t="s">
         <v>41</v>
@@ -3606,7 +3610,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="50">
         <v>45082</v>
@@ -3663,7 +3667,7 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="57"/>
     </row>
-    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="31"/>
       <c r="B24" s="41" t="s">
         <v>61</v>
@@ -3672,7 +3676,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="16">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E24" s="50">
         <v>45092</v>
@@ -3729,7 +3733,7 @@
       <c r="AX24" s="18"/>
       <c r="AY24" s="57"/>
     </row>
-    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="31"/>
       <c r="B25" s="41" t="s">
         <v>52</v>
@@ -3738,18 +3742,18 @@
         <v>50</v>
       </c>
       <c r="D25" s="16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E25" s="50">
         <v>45093</v>
       </c>
       <c r="F25" s="50">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -3795,7 +3799,7 @@
       <c r="AX25" s="18"/>
       <c r="AY25" s="57"/>
     </row>
-    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="32" t="s">
         <v>10</v>
       </c>
@@ -3855,7 +3859,7 @@
       <c r="AX26" s="18"/>
       <c r="AY26" s="57"/>
     </row>
-    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="32"/>
       <c r="B27" s="81" t="s">
         <v>63</v>
@@ -3921,7 +3925,7 @@
       <c r="AX27" s="18"/>
       <c r="AY27" s="57"/>
     </row>
-    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="31"/>
       <c r="B28" s="79" t="s">
         <v>64</v>
@@ -3987,7 +3991,7 @@
       <c r="AX28" s="18"/>
       <c r="AY28" s="57"/>
     </row>
-    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="32"/>
       <c r="B29" s="81" t="s">
         <v>65</v>
@@ -3996,7 +4000,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="78">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="80">
         <v>45089</v>
@@ -4053,7 +4057,7 @@
       <c r="AX29" s="18"/>
       <c r="AY29" s="57"/>
     </row>
-    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="31"/>
       <c r="B30" s="79" t="s">
         <v>40</v>
@@ -4062,18 +4066,18 @@
         <v>49</v>
       </c>
       <c r="D30" s="78">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E30" s="80">
         <v>45093</v>
       </c>
       <c r="F30" s="80">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4119,21 +4123,27 @@
       <c r="AX30" s="18"/>
       <c r="AY30" s="57"/>
     </row>
-    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="31"/>
+      <c r="B31" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="78">
+        <v>0</v>
+      </c>
+      <c r="E31" s="80">
+        <v>45093</v>
+      </c>
+      <c r="F31" s="80">
+        <v>45103</v>
+      </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="10" t="str">
+      <c r="H31" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -4147,8 +4157,8 @@
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
       <c r="Y31" s="18"/>
@@ -4179,27 +4189,21 @@
       <c r="AX31" s="18"/>
       <c r="AY31" s="57"/>
     </row>
-    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="75">
-        <v>45094</v>
-      </c>
-      <c r="F32" s="75">
-        <v>45096</v>
-      </c>
+    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="10">
+      <c r="H32" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -4245,27 +4249,27 @@
       <c r="AX32" s="18"/>
       <c r="AY32" s="57"/>
     </row>
-    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="76" t="s">
-        <v>64</v>
+    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="32"/>
+      <c r="B33" s="74" t="s">
+        <v>63</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="17">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E33" s="75">
         <v>45094</v>
       </c>
       <c r="F33" s="75">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -4311,27 +4315,27 @@
       <c r="AX33" s="18"/>
       <c r="AY33" s="57"/>
     </row>
-    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="31"/>
       <c r="B34" s="76" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D34" s="17">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E34" s="75">
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="F34" s="75">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -4377,21 +4381,27 @@
       <c r="AX34" s="18"/>
       <c r="AY34" s="57"/>
     </row>
-    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
+    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="31"/>
+      <c r="B35" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
+      <c r="E35" s="75">
+        <v>45097</v>
+      </c>
+      <c r="F35" s="75">
+        <v>45102</v>
+      </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="10" t="str">
+      <c r="H35" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -4437,27 +4447,21 @@
       <c r="AX35" s="18"/>
       <c r="AY35" s="57"/>
     </row>
-    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="16">
-        <v>0</v>
-      </c>
-      <c r="E36" s="50">
-        <v>45093</v>
-      </c>
-      <c r="F36" s="50">
-        <v>45105</v>
-      </c>
+    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="10">
+      <c r="H36" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -4494,7 +4498,7 @@
       <c r="AO36" s="18"/>
       <c r="AP36" s="18"/>
       <c r="AQ36" s="18"/>
-      <c r="AR36" s="18"/>
+      <c r="AR36" s="57"/>
       <c r="AS36" s="18"/>
       <c r="AT36" s="18"/>
       <c r="AU36" s="18"/>
@@ -4503,93 +4507,93 @@
       <c r="AX36" s="18"/>
       <c r="AY36" s="57"/>
     </row>
-    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="31"/>
-      <c r="B37" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="94" t="s">
+      <c r="B37" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="95">
+      <c r="D37" s="16">
         <v>0</v>
       </c>
-      <c r="E37" s="96">
-        <v>45101</v>
-      </c>
-      <c r="F37" s="96">
-        <v>45105</v>
-      </c>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59">
+      <c r="E37" s="50">
+        <v>45093</v>
+      </c>
+      <c r="F37" s="50">
+        <v>45107</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
-      <c r="AJ37" s="60"/>
+        <v>15</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
       <c r="AK37" s="57"/>
-      <c r="AL37" s="60"/>
-      <c r="AM37" s="60"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="60"/>
-      <c r="AP37" s="60"/>
-      <c r="AQ37" s="60"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="60"/>
-      <c r="AT37" s="60"/>
-      <c r="AU37" s="60"/>
-      <c r="AV37" s="60"/>
-      <c r="AW37" s="60"/>
-      <c r="AX37" s="60"/>
-      <c r="AY37" s="61"/>
-    </row>
-    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="18"/>
+      <c r="AS37" s="18"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="18"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="57"/>
+    </row>
+    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31"/>
       <c r="B38" s="93" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="95">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="96">
-        <v>45081</v>
-      </c>
-      <c r="F38" s="96">
-        <v>45105</v>
+        <v>45101</v>
+      </c>
+      <c r="F38" s="50">
+        <v>45107</v>
       </c>
       <c r="G38" s="59"/>
       <c r="H38" s="59">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I38" s="60"/>
       <c r="J38" s="60"/>
@@ -4619,14 +4623,14 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="60"/>
       <c r="AJ38" s="60"/>
-      <c r="AK38" s="60"/>
+      <c r="AK38" s="57"/>
       <c r="AL38" s="60"/>
       <c r="AM38" s="60"/>
       <c r="AN38" s="60"/>
       <c r="AO38" s="60"/>
       <c r="AP38" s="60"/>
       <c r="AQ38" s="60"/>
-      <c r="AR38" s="60"/>
+      <c r="AR38" s="57"/>
       <c r="AS38" s="60"/>
       <c r="AT38" s="60"/>
       <c r="AU38" s="60"/>
@@ -4635,34 +4639,100 @@
       <c r="AX38" s="60"/>
       <c r="AY38" s="61"/>
     </row>
-    <row r="39" spans="1:51" s="65" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+    <row r="39" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="31"/>
+      <c r="B39" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="95">
+        <v>0.6</v>
+      </c>
+      <c r="E39" s="96">
+        <v>45081</v>
+      </c>
+      <c r="F39" s="50">
+        <v>45107</v>
+      </c>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="60"/>
+      <c r="AI39" s="60"/>
+      <c r="AJ39" s="60"/>
+      <c r="AK39" s="60"/>
+      <c r="AL39" s="60"/>
+      <c r="AM39" s="60"/>
+      <c r="AN39" s="60"/>
+      <c r="AO39" s="60"/>
+      <c r="AP39" s="60"/>
+      <c r="AQ39" s="60"/>
+      <c r="AR39" s="60"/>
+      <c r="AS39" s="60"/>
+      <c r="AT39" s="60"/>
+      <c r="AU39" s="60"/>
+      <c r="AV39" s="60"/>
+      <c r="AW39" s="60"/>
+      <c r="AX39" s="60"/>
+      <c r="AY39" s="61"/>
+    </row>
+    <row r="40" spans="1:51" s="65" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B40" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64" t="str">
+      <c r="C40" s="68"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="E40" s="72"/>
-      <c r="G40" s="73"/>
-    </row>
-    <row r="41" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="8"/>
-      <c r="F41" s="33"/>
-    </row>
-    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
+    <row r="41" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="62"/>
+      <c r="E41" s="72"/>
+      <c r="G41" s="73"/>
+    </row>
+    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="8"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4677,7 +4747,7 @@
     <mergeCell ref="AD5:AJ5"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D39">
+  <conditionalFormatting sqref="D8:D40">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4691,12 +4761,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:AX39">
+  <conditionalFormatting sqref="I6:AX40">
     <cfRule type="expression" dxfId="6" priority="34">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:AX39">
+  <conditionalFormatting sqref="I8:AX40">
     <cfRule type="expression" dxfId="5" priority="28">
       <formula>AND(Início_da_tarefa&lt;=I$6,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=I$6)</formula>
     </cfRule>
@@ -4704,12 +4774,12 @@
       <formula>AND(Término_da_tarefa&gt;=I$6,Início_da_tarefa&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY6 AY8:AY39">
+  <conditionalFormatting sqref="AY6 AY8:AY40">
     <cfRule type="expression" dxfId="3" priority="36">
       <formula>AND(TODAY()&gt;=AY$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY8:AY39">
+  <conditionalFormatting sqref="AY8:AY40">
     <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND(Início_da_tarefa&lt;=AY$6,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=AY$6)</formula>
     </cfRule>
@@ -4748,7 +4818,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D39</xm:sqref>
+          <xm:sqref>D8:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4762,86 +4832,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.42578125" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="94.453125" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="21" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="21" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="21" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="21" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="21" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="21" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>34</v>
       </c>
@@ -4860,6 +4930,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5147,36 +5246,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5195,31 +5292,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B2F0E3-8739-4959-971E-4704F1C6C855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9D4B4-5774-4302-B737-79CFCB1E1CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15870" yWindow="-6015" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -2113,26 +2113,25 @@
   </sheetPr>
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AP1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="31" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" hidden="1" customWidth="1"/>
-    <col min="9" max="42" width="2.54296875" hidden="1" customWidth="1"/>
-    <col min="43" max="51" width="2.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" customWidth="1"/>
+    <col min="9" max="51" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2144,7 @@
       <c r="F1" s="20"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32"/>
       <c r="B2" s="92" t="s">
         <v>73</v>
@@ -2156,7 +2155,7 @@
       <c r="F2" s="20"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -2171,7 +2170,7 @@
       </c>
       <c r="BD3" s="100"/>
     </row>
-    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2184,7 @@
       </c>
       <c r="F4" s="106"/>
     </row>
-    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2247,7 @@
       <c r="AX5" s="104"/>
       <c r="AY5" s="54"/>
     </row>
-    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:56" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>q</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:56" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
@@ -2681,7 +2680,7 @@
       <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
     </row>
-    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
@@ -2741,7 +2740,7 @@
       <c r="AX9" s="18"/>
       <c r="AY9" s="57"/>
     </row>
-    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
@@ -2810,7 +2809,7 @@
       <c r="AX10" s="18"/>
       <c r="AY10" s="57"/>
     </row>
-    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
@@ -2878,7 +2877,7 @@
       <c r="AX11" s="18"/>
       <c r="AY11" s="57"/>
     </row>
-    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="40" t="s">
         <v>37</v>
@@ -2945,7 +2944,7 @@
       <c r="AY12" s="57"/>
       <c r="BD12" s="99"/>
     </row>
-    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
       <c r="B13" s="40" t="s">
         <v>38</v>
@@ -3011,7 +3010,7 @@
       <c r="AX13" s="18"/>
       <c r="AY13" s="57"/>
     </row>
-    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
@@ -3071,7 +3070,7 @@
       <c r="AX14" s="18"/>
       <c r="AY14" s="57"/>
     </row>
-    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>55</v>
       </c>
@@ -3139,7 +3138,7 @@
       <c r="AX15" s="18"/>
       <c r="AY15" s="57"/>
     </row>
-    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:56" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
@@ -3207,7 +3206,7 @@
       <c r="AX16" s="18"/>
       <c r="AY16" s="57"/>
     </row>
-    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>55</v>
       </c>
@@ -3275,7 +3274,7 @@
       <c r="AX17" s="18"/>
       <c r="AY17" s="57"/>
     </row>
-    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="74" t="s">
         <v>59</v>
@@ -3341,7 +3340,7 @@
       <c r="AX18" s="18"/>
       <c r="AY18" s="57"/>
     </row>
-    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>55</v>
       </c>
@@ -3409,7 +3408,7 @@
       <c r="AX19" s="18"/>
       <c r="AY19" s="57"/>
     </row>
-    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
       <c r="B20" s="76" t="s">
         <v>58</v>
@@ -3475,7 +3474,7 @@
       <c r="AX20" s="18"/>
       <c r="AY20" s="57"/>
     </row>
-    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>55</v>
       </c>
@@ -3535,7 +3534,7 @@
       <c r="AX21" s="18"/>
       <c r="AY21" s="57"/>
     </row>
-    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="41" t="s">
         <v>67</v>
@@ -3601,7 +3600,7 @@
       <c r="AX22" s="18"/>
       <c r="AY22" s="57"/>
     </row>
-    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
       <c r="B23" s="41" t="s">
         <v>41</v>
@@ -3667,7 +3666,7 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="57"/>
     </row>
-    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
       <c r="B24" s="41" t="s">
         <v>61</v>
@@ -3676,7 +3675,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E24" s="50">
         <v>45092</v>
@@ -3733,7 +3732,7 @@
       <c r="AX24" s="18"/>
       <c r="AY24" s="57"/>
     </row>
-    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="41" t="s">
         <v>52</v>
@@ -3742,7 +3741,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="16">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="50">
         <v>45093</v>
@@ -3799,7 +3798,7 @@
       <c r="AX25" s="18"/>
       <c r="AY25" s="57"/>
     </row>
-    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>10</v>
       </c>
@@ -3859,7 +3858,7 @@
       <c r="AX26" s="18"/>
       <c r="AY26" s="57"/>
     </row>
-    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="81" t="s">
         <v>63</v>
@@ -3925,7 +3924,7 @@
       <c r="AX27" s="18"/>
       <c r="AY27" s="57"/>
     </row>
-    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="79" t="s">
         <v>64</v>
@@ -3991,7 +3990,7 @@
       <c r="AX28" s="18"/>
       <c r="AY28" s="57"/>
     </row>
-    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
       <c r="B29" s="81" t="s">
         <v>65</v>
@@ -4057,7 +4056,7 @@
       <c r="AX29" s="18"/>
       <c r="AY29" s="57"/>
     </row>
-    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="79" t="s">
         <v>40</v>
@@ -4123,7 +4122,7 @@
       <c r="AX30" s="18"/>
       <c r="AY30" s="57"/>
     </row>
-    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="79" t="s">
         <v>78</v>
@@ -4189,7 +4188,7 @@
       <c r="AX31" s="18"/>
       <c r="AY31" s="57"/>
     </row>
-    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>10</v>
       </c>
@@ -4249,7 +4248,7 @@
       <c r="AX32" s="18"/>
       <c r="AY32" s="57"/>
     </row>
-    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32"/>
       <c r="B33" s="74" t="s">
         <v>63</v>
@@ -4315,7 +4314,7 @@
       <c r="AX33" s="18"/>
       <c r="AY33" s="57"/>
     </row>
-    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="76" t="s">
         <v>64</v>
@@ -4381,7 +4380,7 @@
       <c r="AX34" s="18"/>
       <c r="AY34" s="57"/>
     </row>
-    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="76" t="s">
         <v>79</v>
@@ -4447,7 +4446,7 @@
       <c r="AX35" s="18"/>
       <c r="AY35" s="57"/>
     </row>
-    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>11</v>
       </c>
@@ -4507,7 +4506,7 @@
       <c r="AX36" s="18"/>
       <c r="AY36" s="57"/>
     </row>
-    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="41" t="s">
         <v>42</v>
@@ -4573,7 +4572,7 @@
       <c r="AX37" s="18"/>
       <c r="AY37" s="57"/>
     </row>
-    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="93" t="s">
         <v>66</v>
@@ -4588,12 +4587,12 @@
         <v>45101</v>
       </c>
       <c r="F38" s="50">
-        <v>45107</v>
+        <v>45105</v>
       </c>
       <c r="G38" s="59"/>
       <c r="H38" s="59">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I38" s="60"/>
       <c r="J38" s="60"/>
@@ -4639,7 +4638,7 @@
       <c r="AX38" s="60"/>
       <c r="AY38" s="61"/>
     </row>
-    <row r="39" spans="1:51" s="2" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="93" t="s">
         <v>69</v>
@@ -4648,7 +4647,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="95">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E39" s="96">
         <v>45081</v>
@@ -4705,7 +4704,7 @@
       <c r="AX39" s="60"/>
       <c r="AY39" s="61"/>
     </row>
-    <row r="40" spans="1:51" s="65" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" s="65" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="66" t="s">
         <v>12</v>
       </c>
@@ -4722,16 +4721,16 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="E41" s="72"/>
       <c r="G41" s="73"/>
     </row>
-    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
       <c r="F42" s="33"/>
     </row>
-    <row r="43" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
     </row>
   </sheetData>
@@ -4832,31 +4831,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.453125" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="9.26953125" style="1"/>
+    <col min="1" max="1" width="94.44140625" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
@@ -4866,42 +4865,42 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="21" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="21" customFormat="1" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="21" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="21" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="21" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="21" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" s="24" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
@@ -4930,35 +4929,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5246,34 +5216,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5292,4 +5264,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9D4B4-5774-4302-B737-79CFCB1E1CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DCE137-0A1E-4B1F-AC25-B69984CACF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>Construção do Dataset de Avaliação de Busca (Juris-TCU)</t>
-  </si>
-  <si>
-    <t>(ou: experimentar LLM como estágio 3 dos pipes)</t>
   </si>
   <si>
     <t>Experimentar: indexadores como expansão (cadastro)</t>
@@ -2111,11 +2108,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD43"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="7" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2693,7 +2690,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="str">
-        <f t="shared" ref="H9:H40" si="4">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
+        <f t="shared" ref="H9:H39" si="4">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
         <v/>
       </c>
       <c r="I9" s="57"/>
@@ -4123,26 +4120,20 @@
       <c r="AY30" s="57"/>
     </row>
     <row r="31" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="78">
-        <v>0</v>
-      </c>
-      <c r="E31" s="80">
-        <v>45093</v>
-      </c>
-      <c r="F31" s="80">
-        <v>45103</v>
-      </c>
+      <c r="A31" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="10">
+      <c r="H31" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v/>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -4156,8 +4147,8 @@
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
       <c r="Y31" s="18"/>
@@ -4189,20 +4180,26 @@
       <c r="AY31" s="57"/>
     </row>
     <row r="32" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="75">
+        <v>45094</v>
+      </c>
+      <c r="F32" s="75">
+        <v>45103</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
+        <f t="shared" si="4"/>
         <v>10</v>
-      </c>
-      <c r="B32" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -4249,15 +4246,15 @@
       <c r="AY32" s="57"/>
     </row>
     <row r="33" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="74" t="s">
-        <v>63</v>
+      <c r="A33" s="31"/>
+      <c r="B33" s="76" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="17">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E33" s="75">
         <v>45094</v>
@@ -4317,24 +4314,24 @@
     <row r="34" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="76" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D34" s="17">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="75">
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F34" s="75">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -4381,26 +4378,20 @@
       <c r="AY34" s="57"/>
     </row>
     <row r="35" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="17">
-        <v>0</v>
-      </c>
-      <c r="E35" s="75">
-        <v>45097</v>
-      </c>
-      <c r="F35" s="75">
-        <v>45102</v>
-      </c>
+      <c r="A35" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10">
+      <c r="H35" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -4447,20 +4438,26 @@
       <c r="AY35" s="57"/>
     </row>
     <row r="36" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="50">
+        <v>45093</v>
+      </c>
+      <c r="F36" s="50">
+        <v>45107</v>
+      </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="10" t="str">
+      <c r="H36" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -4497,7 +4494,7 @@
       <c r="AO36" s="18"/>
       <c r="AP36" s="18"/>
       <c r="AQ36" s="18"/>
-      <c r="AR36" s="57"/>
+      <c r="AR36" s="18"/>
       <c r="AS36" s="18"/>
       <c r="AT36" s="18"/>
       <c r="AU36" s="18"/>
@@ -4508,91 +4505,91 @@
     </row>
     <row r="37" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
-      <c r="B37" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="38" t="s">
+      <c r="B37" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="95">
         <v>0</v>
       </c>
-      <c r="E37" s="50">
-        <v>45093</v>
+      <c r="E37" s="96">
+        <v>45101</v>
       </c>
       <c r="F37" s="50">
-        <v>45107</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10">
+        <v>45105</v>
+      </c>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="60"/>
+      <c r="AJ37" s="60"/>
       <c r="AK37" s="57"/>
-      <c r="AL37" s="18"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="18"/>
-      <c r="AO37" s="18"/>
-      <c r="AP37" s="18"/>
-      <c r="AQ37" s="18"/>
-      <c r="AR37" s="18"/>
-      <c r="AS37" s="18"/>
-      <c r="AT37" s="18"/>
-      <c r="AU37" s="18"/>
-      <c r="AV37" s="18"/>
-      <c r="AW37" s="18"/>
-      <c r="AX37" s="18"/>
-      <c r="AY37" s="57"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="60"/>
+      <c r="AP37" s="60"/>
+      <c r="AQ37" s="60"/>
+      <c r="AR37" s="57"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="60"/>
+      <c r="AU37" s="60"/>
+      <c r="AV37" s="60"/>
+      <c r="AW37" s="60"/>
+      <c r="AX37" s="60"/>
+      <c r="AY37" s="61"/>
     </row>
     <row r="38" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="93" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C38" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="96">
-        <v>45101</v>
+        <v>45081</v>
       </c>
       <c r="F38" s="50">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G38" s="59"/>
       <c r="H38" s="59">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I38" s="60"/>
       <c r="J38" s="60"/>
@@ -4622,14 +4619,14 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="60"/>
       <c r="AJ38" s="60"/>
-      <c r="AK38" s="57"/>
+      <c r="AK38" s="60"/>
       <c r="AL38" s="60"/>
       <c r="AM38" s="60"/>
       <c r="AN38" s="60"/>
       <c r="AO38" s="60"/>
       <c r="AP38" s="60"/>
       <c r="AQ38" s="60"/>
-      <c r="AR38" s="57"/>
+      <c r="AR38" s="60"/>
       <c r="AS38" s="60"/>
       <c r="AT38" s="60"/>
       <c r="AU38" s="60"/>
@@ -4638,100 +4635,34 @@
       <c r="AX38" s="60"/>
       <c r="AY38" s="61"/>
     </row>
-    <row r="39" spans="1:51" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="95">
-        <v>1</v>
-      </c>
-      <c r="E39" s="96">
-        <v>45081</v>
-      </c>
-      <c r="F39" s="50">
-        <v>45107</v>
-      </c>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="60"/>
-      <c r="AI39" s="60"/>
-      <c r="AJ39" s="60"/>
-      <c r="AK39" s="60"/>
-      <c r="AL39" s="60"/>
-      <c r="AM39" s="60"/>
-      <c r="AN39" s="60"/>
-      <c r="AO39" s="60"/>
-      <c r="AP39" s="60"/>
-      <c r="AQ39" s="60"/>
-      <c r="AR39" s="60"/>
-      <c r="AS39" s="60"/>
-      <c r="AT39" s="60"/>
-      <c r="AU39" s="60"/>
-      <c r="AV39" s="60"/>
-      <c r="AW39" s="60"/>
-      <c r="AX39" s="60"/>
-      <c r="AY39" s="61"/>
-    </row>
-    <row r="40" spans="1:51" s="65" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="66" t="s">
+    <row r="39" spans="1:51" s="65" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B39" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64" t="str">
+      <c r="C39" s="68"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="62"/>
-      <c r="E41" s="72"/>
-      <c r="G41" s="73"/>
+    <row r="40" spans="1:51" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
+      <c r="E40" s="72"/>
+      <c r="G40" s="73"/>
+    </row>
+    <row r="41" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="8"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-      <c r="F42" s="33"/>
-    </row>
-    <row r="43" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="9"/>
+      <c r="C42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4746,7 +4677,7 @@
     <mergeCell ref="AD5:AJ5"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D40">
+  <conditionalFormatting sqref="D8:D39">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4760,12 +4691,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:AX40">
+  <conditionalFormatting sqref="I6:AX39">
     <cfRule type="expression" dxfId="6" priority="34">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:AX40">
+  <conditionalFormatting sqref="I8:AX39">
     <cfRule type="expression" dxfId="5" priority="28">
       <formula>AND(Início_da_tarefa&lt;=I$6,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=I$6)</formula>
     </cfRule>
@@ -4773,12 +4704,12 @@
       <formula>AND(Término_da_tarefa&gt;=I$6,Início_da_tarefa&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY6 AY8:AY40">
+  <conditionalFormatting sqref="AY6 AY8:AY39">
     <cfRule type="expression" dxfId="3" priority="36">
       <formula>AND(TODAY()&gt;=AY$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY8:AY40">
+  <conditionalFormatting sqref="AY8:AY39">
     <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND(Início_da_tarefa&lt;=AY$6,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=AY$6)</formula>
     </cfRule>
@@ -4817,7 +4748,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D40</xm:sqref>
+          <xm:sqref>D8:D39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5217,15 +5148,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5243,6 +5165,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5267,14 +5198,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
@@ -5291,4 +5214,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/schedule/cronograma.xlsx
+++ b/docs/schedule/cronograma.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DCE137-0A1E-4B1F-AC25-B69984CACF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C120B6-397B-4880-9A30-8DAF2302958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -2111,8 +2111,8 @@
   <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4062,18 +4062,18 @@
         <v>49</v>
       </c>
       <c r="D30" s="78">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="80">
         <v>45093</v>
       </c>
       <c r="F30" s="80">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4320,18 +4320,18 @@
         <v>39</v>
       </c>
       <c r="D34" s="17">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E34" s="75">
         <v>45097</v>
       </c>
       <c r="F34" s="75">
-        <v>45104</v>
+        <v>45106</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -4446,18 +4446,18 @@
         <v>39</v>
       </c>
       <c r="D36" s="16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E36" s="50">
         <v>45093</v>
       </c>
       <c r="F36" s="50">
-        <v>45107</v>
+        <v>45109</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -4512,7 +4512,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="96">
         <v>45101</v>
@@ -4728,7 +4728,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5148,6 +5148,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5165,15 +5174,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5198,28 +5198,28 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>